--- a/Sample_2.xlsx
+++ b/Sample_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3226972-B607-4E31-9747-A726CF756082}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102DCF87-ED5B-4E3C-A386-E3D21FC18C47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>string</t>
   </si>
@@ -324,6 +324,14 @@
   <si>
     <t>{x=1, y=2}</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -342,11 +350,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -740,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -754,7 +764,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -791,8 +801,11 @@
       <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -829,8 +842,11 @@
       <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -856,7 +872,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -891,8 +907,11 @@
       <c r="L4" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="M4" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>105</v>
       </c>
@@ -923,17 +942,20 @@
       <c r="L5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="M5" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
     </row>
   </sheetData>

--- a/Sample_2.xlsx
+++ b/Sample_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102DCF87-ED5B-4E3C-A386-E3D21FC18C47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A711E7-CDA8-4BBC-88D1-4B99DE6F43FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2760" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>string</t>
   </si>
@@ -331,6 +331,42 @@
   </si>
   <si>
     <t>Key值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wardList</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wardList</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -750,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -764,7 +800,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -804,8 +840,11 @@
       <c r="M1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -845,8 +884,11 @@
       <c r="M2" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -871,8 +913,9 @@
       <c r="J3" s="4"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
+      <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -910,8 +953,11 @@
       <c r="M4" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="N4" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>105</v>
       </c>
@@ -945,17 +991,20 @@
       <c r="M5" s="1">
         <v>6</v>
       </c>
+      <c r="N5" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
     </row>
   </sheetData>

--- a/Sample_2.xlsx
+++ b/Sample_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A711E7-CDA8-4BBC-88D1-4B99DE6F43FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC97A0CF-C114-4DFC-8B5C-AA2DDC6E4FE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="2760" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>string</t>
   </si>
@@ -233,9 +233,6 @@
     <t>ListSpliter: "|"</t>
   </si>
   <si>
-    <t>ListSpliter: ";"</t>
-  </si>
-  <si>
     <t>唯一ID</t>
   </si>
   <si>
@@ -264,58 +261,6 @@
   <si>
     <t>黑猫警长，</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
   </si>
   <si>
     <t>{3, 4, 5}</t>
@@ -367,6 +312,10 @@
       </rPr>
       <t>wardList</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2[]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +738,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -838,10 +787,10 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -870,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>16</v>
@@ -882,10 +831,10 @@
         <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -907,9 +856,7 @@
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -917,20 +864,20 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>9</v>
@@ -939,22 +886,22 @@
         <v>9</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -962,10 +909,10 @@
         <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="6">
@@ -976,17 +923,15 @@
       <c r="H5" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M5" s="1">
         <v>6</v>

--- a/Sample_2.xlsx
+++ b/Sample_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC97A0CF-C114-4DFC-8B5C-AA2DDC6E4FE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E40B5B-AC22-4C7A-BF5D-9C2AF2572C83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2760" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>string</t>
   </si>
@@ -317,6 +317,32 @@
   <si>
     <t>Vector2[]</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Vector3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -738,7 +764,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -824,8 +850,8 @@
       <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>21</v>

--- a/Sample_2.xlsx
+++ b/Sample_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E40B5B-AC22-4C7A-BF5D-9C2AF2572C83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7008B1BC-1D14-48A2-9613-A22043C98D80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>string</t>
   </si>
@@ -344,12 +344,19 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActorType</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +426,18 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -464,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +503,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -775,7 +797,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -818,8 +840,11 @@
       <c r="N1" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="O1" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -862,8 +887,11 @@
       <c r="N2" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="O2" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -888,7 +916,7 @@
       <c r="L3" s="2"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -930,7 +958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>105</v>
       </c>
@@ -966,16 +994,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
     </row>
   </sheetData>

--- a/Sample_2.xlsx
+++ b/Sample_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7008B1BC-1D14-48A2-9613-A22043C98D80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5062AD9D-88AA-4C31-8106-82376E9AF610}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>string</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>ActorType</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Vec2</t>
   </si>
 </sst>
 </file>
@@ -783,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -797,7 +803,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -843,8 +849,11 @@
       <c r="O1" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="P1" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -890,8 +899,11 @@
       <c r="O2" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="P2" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -916,7 +928,7 @@
       <c r="L3" s="2"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -958,7 +970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>105</v>
       </c>
@@ -994,16 +1006,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
     </row>
   </sheetData>

--- a/Sample_2.xlsx
+++ b/Sample_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5062AD9D-88AA-4C31-8106-82376E9AF610}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D126D-8340-4EA5-8B98-C61A2E9EC490}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,13 +349,59 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>ActorType</t>
-  </si>
-  <si>
     <t>Pos</t>
   </si>
   <si>
-    <t>Vec2</t>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ActorType</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Vec2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -437,11 +483,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -792,7 +840,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -850,7 +898,7 @@
         <v>43</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -896,10 +944,10 @@
       <c r="N2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="O2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
